--- a/data/docs/csv/room.xlsx
+++ b/data/docs/csv/room.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KHRDI-05\Desktop\project_hotel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\workspace-jsp\project_hotel\data\docs\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13155" windowHeight="7770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13152" windowHeight="7776"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -378,15 +378,15 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="5" max="5" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,7 +406,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>301</v>
       </c>
@@ -426,7 +426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>302</v>
       </c>
@@ -446,7 +446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>303</v>
       </c>
@@ -466,7 +466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>304</v>
       </c>
@@ -486,9 +486,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B6">
         <v>313000</v>
@@ -506,9 +506,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B7">
         <v>313000</v>
@@ -526,9 +526,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B8">
         <v>313000</v>
@@ -546,9 +546,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B9">
         <v>313000</v>
@@ -566,7 +566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>401</v>
       </c>
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>402</v>
       </c>
@@ -606,9 +606,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B12">
         <v>313000</v>
@@ -626,9 +626,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B13">
         <v>313000</v>
@@ -646,9 +646,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B14">
         <v>403000</v>
@@ -666,9 +666,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B15">
         <v>403000</v>
@@ -686,9 +686,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B16">
         <v>403000</v>
@@ -706,9 +706,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B17">
         <v>403000</v>
@@ -726,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>501</v>
       </c>
@@ -746,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>502</v>
       </c>
@@ -766,9 +766,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B20">
         <v>360000</v>
@@ -786,9 +786,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B21">
         <v>360000</v>
@@ -806,9 +806,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B22">
         <v>360000</v>
@@ -826,9 +826,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B23">
         <v>360000</v>
@@ -846,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>601</v>
       </c>
@@ -866,7 +866,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>602</v>
       </c>
@@ -880,15 +880,15 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B26">
         <v>445000</v>
@@ -900,15 +900,15 @@
         <v>2</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B27">
         <v>445000</v>
@@ -926,9 +926,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B28">
         <v>510000</v>
@@ -946,7 +946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>606</v>
       </c>
@@ -966,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>701</v>
       </c>
@@ -986,7 +986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>702</v>
       </c>
@@ -1000,13 +1000,13 @@
         <v>3</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>801</v>
       </c>
@@ -1020,13 +1020,13 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32">
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>802</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>901</v>
       </c>
@@ -1066,7 +1066,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>1001</v>
       </c>
@@ -1089,5 +1089,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>